--- a/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/Johnston Paper/Johnston Paper_Triphammer_2025-08-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,164 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>764804</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>48 SparClean Dish Manual</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>102.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>102.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>T607646</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Container - Deli (64oz)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>123.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>123.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lid - Deli (64oz)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LKC1220F</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lid Cold Flat - 12/20oz (No Slot)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>711603</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NABC Bathroom Cleaner</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LKC1624F</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Parfait Lid</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>47.53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
